--- a/ders_programi_tam_rapor.xlsx
+++ b/ders_programi_tam_rapor.xlsx
@@ -68,367 +68,406 @@
     <t>19:00-21:00</t>
   </si>
   <si>
+    <t>Derslik 110</t>
+  </si>
+  <si>
+    <t>Derslik 108</t>
+  </si>
+  <si>
+    <t>Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 205</t>
+  </si>
+  <si>
+    <t>Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 208</t>
+  </si>
+  <si>
     <t>Derslik 102</t>
   </si>
   <si>
-    <t>Derslik 101</t>
+    <t>Derslik 204</t>
+  </si>
+  <si>
+    <t>Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 109</t>
+  </si>
+  <si>
+    <t>Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 104</t>
   </si>
   <si>
     <t>Derslik 211</t>
   </si>
   <si>
-    <t>Derslik 208</t>
-  </si>
-  <si>
-    <t>Derslik 105</t>
-  </si>
-  <si>
-    <t>Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 201</t>
-  </si>
-  <si>
-    <t>Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 110</t>
-  </si>
-  <si>
-    <t>Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 111</t>
-  </si>
-  <si>
-    <t>Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 209</t>
+    <t>Yatırım Yönetimi</t>
+  </si>
+  <si>
+    <t>Örgüt Sosyolojisi</t>
+  </si>
+  <si>
+    <t>Dijital Dönüşümün Yönetimi</t>
+  </si>
+  <si>
+    <t>Mali Tablolar Analizi</t>
+  </si>
+  <si>
+    <t>Financial Management I</t>
+  </si>
+  <si>
+    <t>Marketing Management I</t>
+  </si>
+  <si>
+    <t>Üretimde Yenilik ve Teknoloji Yönetimi</t>
+  </si>
+  <si>
+    <t>Modelleme ve Optimizasyon</t>
+  </si>
+  <si>
+    <t>Araştırma Yöntemleri (Çift)</t>
+  </si>
+  <si>
+    <t>Örgütsel Davranış</t>
+  </si>
+  <si>
+    <t>Küresel Tedarik Zinciri ve Lojistik</t>
+  </si>
+  <si>
+    <t>Teknoloji Yönetiminin Esasları</t>
+  </si>
+  <si>
+    <t>Hukukun Temel Kavramları (Örgün + İ.Ö.)</t>
+  </si>
+  <si>
+    <t>Yönetimin Felsefi Temelleri</t>
+  </si>
+  <si>
+    <t>Global Marketing (Çift)</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları A</t>
+  </si>
+  <si>
+    <t>Uluslararası Finansman</t>
+  </si>
+  <si>
+    <t>Örgütler ve Yönetim</t>
+  </si>
+  <si>
+    <t>Bilimsel Araştırma Yöntemleri ve Etik</t>
+  </si>
+  <si>
+    <t>Vadeli İşlem Piyasaları</t>
+  </si>
+  <si>
+    <t>Kurumsal Koçluk ve Mentorluk</t>
+  </si>
+  <si>
+    <t>Stratejik Yatırım Kararları ve Planlama</t>
+  </si>
+  <si>
+    <t>Stratejik İşletme Finansı</t>
+  </si>
+  <si>
+    <t>Üretim İşlemler Stratejisi</t>
+  </si>
+  <si>
+    <t>Consumer Behavior (Çift)</t>
+  </si>
+  <si>
+    <t>Borçlar Hukuku</t>
+  </si>
+  <si>
+    <t>İleri Örgütsel Davranış</t>
+  </si>
+  <si>
+    <t>Üretim Çizelgeleme</t>
+  </si>
+  <si>
+    <t>Teknoloji ve Sanayi Dinamikleri</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları</t>
+  </si>
+  <si>
+    <t>Yönetim Bilişim Sistemleri</t>
+  </si>
+  <si>
+    <t>Yönetimde Güncel Yaklaşımlar</t>
+  </si>
+  <si>
+    <t>Consumer Behavior (Tek)</t>
+  </si>
+  <si>
+    <t>Tedarik Zinciri Yönetimi ve Lojistik</t>
+  </si>
+  <si>
+    <t>Stratejik Stok Yönetimi</t>
+  </si>
+  <si>
+    <t>Yönetim Muhasebesi</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları B</t>
+  </si>
+  <si>
+    <t>Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme</t>
+  </si>
+  <si>
+    <t>İşlemler Yönetimi</t>
+  </si>
+  <si>
+    <t>Yönetim Atölyesi</t>
+  </si>
+  <si>
+    <t>Stratejik Finans Yönetimi</t>
+  </si>
+  <si>
+    <t>Pazarlama Kuramı</t>
+  </si>
+  <si>
+    <t>Enformetri</t>
+  </si>
+  <si>
+    <t>Araştırma Yöntemleri (Tek)</t>
+  </si>
+  <si>
+    <t>E-Pazarlama</t>
+  </si>
+  <si>
+    <t>Yönetim Geliştirme</t>
+  </si>
+  <si>
+    <t>Introduction to Microeconomics</t>
+  </si>
+  <si>
+    <t>Stok Yönetimi</t>
+  </si>
+  <si>
+    <t>Üretim ve İşlemler Yönetimi</t>
+  </si>
+  <si>
+    <t>Organizational Behavior (Tek)</t>
+  </si>
+  <si>
+    <t>Pazarlamada Güncel Konular</t>
+  </si>
+  <si>
+    <t>Sosyoloji</t>
+  </si>
+  <si>
+    <t>Retailing I</t>
+  </si>
+  <si>
+    <t>Pazarlama Yönetimi</t>
+  </si>
+  <si>
+    <t>Malzeme ve Stok Yönetimi</t>
+  </si>
+  <si>
+    <t>Akıllı Karar Modelleri</t>
+  </si>
+  <si>
+    <t>Ticaret Hukuku</t>
+  </si>
+  <si>
+    <t>Perakendecilik</t>
+  </si>
+  <si>
+    <t>E-İş ve Kurumsal Kaynak Planlama</t>
+  </si>
+  <si>
+    <t>İleri Örgüt Sosyolojisi</t>
+  </si>
+  <si>
+    <t>Girişimcilik ve KOBİ Yönetimi</t>
+  </si>
+  <si>
+    <t>Kariyer Planlama</t>
+  </si>
+  <si>
+    <t>Sürdürülebilir Pazarlama</t>
+  </si>
+  <si>
+    <t>Vestel İşletmecilik Seminerleri I</t>
+  </si>
+  <si>
+    <t>Reklamcılık Yönetimi</t>
+  </si>
+  <si>
+    <t>İşletme Hukuku</t>
+  </si>
+  <si>
+    <t>Türk Dili I</t>
+  </si>
+  <si>
+    <t>Hizmet Pazarlaması</t>
+  </si>
+  <si>
+    <t>İleri Üretim Çizelgeleme</t>
+  </si>
+  <si>
+    <t>İstatistik I</t>
+  </si>
+  <si>
+    <t>System Analysis and Design</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Stratejik Yönetimde Güncel Konular</t>
+  </si>
+  <si>
+    <t>Endüstriyel Pazarlama</t>
+  </si>
+  <si>
+    <t>Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri</t>
+  </si>
+  <si>
+    <t>Proje Yönetimi</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetimi</t>
+  </si>
+  <si>
+    <t>Sermaye Piyasaları ve Menkul Kıymetler Analizi</t>
+  </si>
+  <si>
+    <t>Stratejik Pazarlama Yönetimi</t>
+  </si>
+  <si>
+    <t>Veri Odaklı Üretim Planlama Stratejileri</t>
   </si>
   <si>
     <t>Muhasebe I</t>
   </si>
   <si>
-    <t>İleri Örgüt Sosyolojisi</t>
-  </si>
-  <si>
-    <t>Girişimcilik ve KOBİ Yönetimi</t>
-  </si>
-  <si>
-    <t>Tedarik Zinciri Yönetimi ve Lojistik</t>
-  </si>
-  <si>
-    <t>Pazarlamada Güncel Konular</t>
-  </si>
-  <si>
-    <t>Marketing Management I</t>
-  </si>
-  <si>
-    <t>Üretimde Yenilik ve Teknoloji Yönetimi</t>
-  </si>
-  <si>
-    <t>Borçlar Hukuku</t>
-  </si>
-  <si>
-    <t>Hizmet Pazarlaması</t>
-  </si>
-  <si>
-    <t>Stratejik Yönetimde Güncel Konular</t>
-  </si>
-  <si>
-    <t>Yatırım Yönetimi</t>
-  </si>
-  <si>
-    <t>İstatistik I</t>
-  </si>
-  <si>
-    <t>Yönetimin Felsefi Temelleri</t>
-  </si>
-  <si>
-    <t>Financial Management I</t>
-  </si>
-  <si>
-    <t>Global Marketing (Çift)</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları A</t>
-  </si>
-  <si>
-    <t>Örgütler ve Yönetim</t>
-  </si>
-  <si>
-    <t>Bilimsel Araştırma Yöntemleri ve Etik</t>
-  </si>
-  <si>
-    <t>Ticaret Hukuku</t>
-  </si>
-  <si>
-    <t>Sermaye Piyasaları ve Menkul Kıymetler Analizi</t>
-  </si>
-  <si>
-    <t>Stratejik Yatırım Kararları ve Planlama</t>
+    <t>Bilgi Yönetimi</t>
+  </si>
+  <si>
+    <t>Matematik-I (Çift)</t>
+  </si>
+  <si>
+    <t>Human Resources Management</t>
+  </si>
+  <si>
+    <t>Management Consultancy</t>
+  </si>
+  <si>
+    <t>Uygulamalı Finansal Piyasa İşlemleri</t>
+  </si>
+  <si>
+    <t>Atatürk İlkeleri ve İnkılap Tarihi I</t>
+  </si>
+  <si>
+    <t>Global Marketing (Tek)</t>
+  </si>
+  <si>
+    <t>Operations Management I</t>
+  </si>
+  <si>
+    <t>Seminer</t>
+  </si>
+  <si>
+    <t>Operations Research I</t>
+  </si>
+  <si>
+    <t>Yatırım Analizi ve Portföy Yönetimi</t>
+  </si>
+  <si>
+    <t>Organizational Behavior (Çift)</t>
+  </si>
+  <si>
+    <t>Matematik-I (Tek)</t>
+  </si>
+  <si>
+    <t>Değişim Yönetimi ve Yönetim Danışmanlığı</t>
+  </si>
+  <si>
+    <t>İş Analitiğinde Sayısal Yöntemler</t>
+  </si>
+  <si>
+    <t>Lojistik ve Tedarik Zincirinde Güncel Konular</t>
+  </si>
+  <si>
+    <t>Ağ Modelleri</t>
   </si>
   <si>
     <t>Finansal Muhasebe</t>
   </si>
   <si>
-    <t>Üretim İşlemler Stratejisi</t>
-  </si>
-  <si>
-    <t>Enformetri</t>
-  </si>
-  <si>
-    <t>Yönetim Bilişim Sistemleri</t>
-  </si>
-  <si>
-    <t>Human Resources Management</t>
-  </si>
-  <si>
-    <t>Management Consultancy</t>
-  </si>
-  <si>
-    <t>Teknoloji ve Sanayi Dinamikleri</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları</t>
-  </si>
-  <si>
-    <t>Organizational Behavior (Tek)</t>
-  </si>
-  <si>
-    <t>Operations Research I</t>
-  </si>
-  <si>
-    <t>Sosyoloji</t>
-  </si>
-  <si>
-    <t>System Analysis and Design</t>
-  </si>
-  <si>
-    <t>E-Pazarlama</t>
-  </si>
-  <si>
-    <t>Consumer Behavior (Tek)</t>
-  </si>
-  <si>
-    <t>Yönetim Geliştirme</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları B</t>
-  </si>
-  <si>
-    <t>Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme</t>
-  </si>
-  <si>
-    <t>Pazarlama Yönetimi</t>
-  </si>
-  <si>
-    <t>Vadeli İşlem Piyasaları</t>
-  </si>
-  <si>
-    <t>Örgütsel Davranış</t>
-  </si>
-  <si>
-    <t>Endüstriyel Pazarlama</t>
-  </si>
-  <si>
-    <t>İşlemler Yönetimi</t>
-  </si>
-  <si>
-    <t>Pazarlama Kuramı</t>
-  </si>
-  <si>
-    <t>Yatırım Analizi ve Portföy Yönetimi</t>
-  </si>
-  <si>
-    <t>Modelleme ve Optimizasyon</t>
-  </si>
-  <si>
-    <t>Araştırma Yöntemleri (Tek)</t>
-  </si>
-  <si>
-    <t>Matematik-I (Çift)</t>
-  </si>
-  <si>
-    <t>Introduction to Microeconomics</t>
-  </si>
-  <si>
-    <t>Teknoloji Yönetiminin Esasları</t>
-  </si>
-  <si>
-    <t>İşletme Hukuku</t>
-  </si>
-  <si>
-    <t>Türk Dili I</t>
-  </si>
-  <si>
-    <t>Araştırma Yöntemleri (Çift)</t>
-  </si>
-  <si>
-    <t>Organizational Behavior (Çift)</t>
-  </si>
-  <si>
-    <t>Matematik-I (Tek)</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar</t>
-  </si>
-  <si>
-    <t>Uluslararası Finansman</t>
-  </si>
-  <si>
-    <t>Proje Yönetimi</t>
-  </si>
-  <si>
-    <t>Akıllı Karar Modelleri</t>
-  </si>
-  <si>
-    <t>Kurumsal Koçluk ve Mentorluk</t>
-  </si>
-  <si>
-    <t>Lojistik ve Tedarik Zincirinde Güncel Konular</t>
-  </si>
-  <si>
-    <t>Stratejik İşletme Finansı</t>
-  </si>
-  <si>
-    <t>Perakendecilik</t>
-  </si>
-  <si>
-    <t>Stok Yönetimi</t>
-  </si>
-  <si>
-    <t>Örgüt Sosyolojisi</t>
-  </si>
-  <si>
-    <t>Üretim ve İşlemler Yönetimi</t>
-  </si>
-  <si>
-    <t>Mali Tablolar Analizi</t>
-  </si>
-  <si>
-    <t>Vestel İşletmecilik Seminerleri I</t>
-  </si>
-  <si>
-    <t>Bilgi Yönetimi</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Üretim Çizelgeleme</t>
-  </si>
-  <si>
-    <t>E-İş ve Kurumsal Kaynak Planlama</t>
-  </si>
-  <si>
-    <t>Dijital Dönüşümün Yönetimi</t>
-  </si>
-  <si>
-    <t>Yönetim Muhasebesi</t>
-  </si>
-  <si>
-    <t>İleri Örgütsel Davranış</t>
-  </si>
-  <si>
-    <t>Sürdürülebilir Pazarlama</t>
-  </si>
-  <si>
-    <t>Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetimi</t>
-  </si>
-  <si>
-    <t>İş Analitiğinde Sayısal Yöntemler</t>
-  </si>
-  <si>
-    <t>Stratejik Pazarlama Yönetimi</t>
-  </si>
-  <si>
-    <t>Stratejik Finans Yönetimi</t>
-  </si>
-  <si>
-    <t>Veri Odaklı Üretim Planlama Stratejileri</t>
-  </si>
-  <si>
-    <t>Stratejik Stok Yönetimi</t>
-  </si>
-  <si>
-    <t>Reklamcılık Yönetimi</t>
-  </si>
-  <si>
-    <t>Kariyer Planlama</t>
-  </si>
-  <si>
-    <t>Küresel Tedarik Zinciri ve Lojistik</t>
-  </si>
-  <si>
-    <t>Seminer</t>
-  </si>
-  <si>
-    <t>Uygulamalı Finansal Piyasa İşlemleri</t>
-  </si>
-  <si>
-    <t>Atatürk İlkeleri ve İnkılap Tarihi I</t>
-  </si>
-  <si>
-    <t>Yönetimde Güncel Yaklaşımlar</t>
-  </si>
-  <si>
-    <t>Global Marketing (Tek)</t>
-  </si>
-  <si>
-    <t>Değişim Yönetimi ve Yönetim Danışmanlığı</t>
-  </si>
-  <si>
-    <t>İleri Üretim Çizelgeleme</t>
-  </si>
-  <si>
-    <t>Consumer Behavior (Çift)</t>
-  </si>
-  <si>
-    <t>Hukukun Temel Kavramları (Örgün + İ.Ö.)</t>
-  </si>
-  <si>
-    <t>Retailing I</t>
-  </si>
-  <si>
-    <t>Operations Management I</t>
-  </si>
-  <si>
-    <t>Malzeme ve Stok Yönetimi</t>
-  </si>
-  <si>
-    <t>Yönetim Atölyesi</t>
-  </si>
-  <si>
-    <t>Ağ Modelleri</t>
+    <t>3. Sınıf</t>
+  </si>
+  <si>
+    <t>İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli</t>
+  </si>
+  <si>
+    <t>İşletme Tezli</t>
   </si>
   <si>
     <t>2. Sınıf</t>
   </si>
   <si>
+    <t>Üretim Yönetimi ve Sayısal Yöntemler Tezli</t>
+  </si>
+  <si>
+    <t>Üretim Yönetimi ve Sayısal Yöntemler Doktora</t>
+  </si>
+  <si>
+    <t>1. Sınıf</t>
+  </si>
+  <si>
     <t>Yönetim ve Organizasyon Doktora</t>
   </si>
   <si>
-    <t>3. Sınıf</t>
+    <t>4. Sınıf</t>
+  </si>
+  <si>
+    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Muhasebe ve Finansman İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>İşletme İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Yönetim Bilimi ve Organizasyon Tezli</t>
   </si>
   <si>
     <t>İşletme Tezli, Üretim Yönetimi Tezli</t>
@@ -437,60 +476,21 @@
     <t>İşletme Tezli, Pazarlama Tezli</t>
   </si>
   <si>
-    <t>Üretim Yönetimi ve Sayısal Yöntemler Tezli</t>
-  </si>
-  <si>
-    <t>4. Sınıf</t>
-  </si>
-  <si>
-    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>İşletme İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Muhasebe ve Finansman İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Üretim Yönetimi ve Sayısal Yöntemler Doktora</t>
-  </si>
-  <si>
-    <t>İşletme Tezli</t>
-  </si>
-  <si>
-    <t>1. Sınıf</t>
+    <t>Pazarlama Tezli</t>
+  </si>
+  <si>
+    <t>Uzaktan Öğretim İşletme Tezsiz</t>
   </si>
   <si>
     <t>İşletme Doktora</t>
   </si>
   <si>
-    <t>İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli</t>
-  </si>
-  <si>
-    <t>Pazarlama Tezli</t>
-  </si>
-  <si>
-    <t>Uzaktan Öğretim İşletme Tezsiz</t>
-  </si>
-  <si>
-    <t>Yönetim Bilimi ve Organizasyon Tezli</t>
+    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
   </si>
   <si>
     <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
   </si>
   <si>
-    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
-  </si>
-  <si>
     <t>Zorunlu</t>
   </si>
   <si>
@@ -503,448 +503,448 @@
     <t>Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
   </si>
   <si>
+    <t>Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
     <t>Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
   </si>
   <si>
+    <t>Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
     <t>Prof. Dr. Burcu ARACIOĞLU</t>
   </si>
   <si>
+    <t>Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
     <t>Prof. Dr. Keti VENTURA</t>
   </si>
   <si>
-    <t>Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Haluk SOYUER</t>
+    <t>Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
   </si>
   <si>
     <t>Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
   </si>
   <si>
+    <t>Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
     <t>Prof. Dr. Ayla Özhan DEDEOĞLU</t>
   </si>
   <si>
-    <t>Prof. Dr. Burak ÇAPRAZ</t>
+    <t>Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>ÖĞRETMEN 3</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>ÖĞRETMEN 4</t>
   </si>
   <si>
     <t>Doç. Dr. İnanç KABASAKAL</t>
   </si>
   <si>
-    <t>Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
     <t>Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
-    <t>Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
     <t>ÖĞRETMEN 2</t>
   </si>
   <si>
-    <t>ÖĞRETMEN 3</t>
-  </si>
-  <si>
-    <t>ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+    <t>ÖĞRETMEN 5</t>
   </si>
   <si>
     <t>ÖĞRETMEN 1</t>
   </si>
   <si>
-    <t>Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>ÖĞRETMEN 5</t>
+    <t>Derslik 110: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 108: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 103: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 209: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 205: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 101: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 111: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 202: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 201: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 110: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 105: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 105: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 110: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Derslik 208: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 101: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 101: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 102: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 204: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 209: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 210: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 205: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 103: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 208: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 201: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 202: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 209: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 204: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 204: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 109: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 203: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 111: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 205: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 111: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 108: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 209: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 103: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 203: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 104: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 208: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 201: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 105: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 211: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 209: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 103: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 110: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 102: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 104: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3</t>
+  </si>
+  <si>
+    <t>Derslik 205: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 211: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 105: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 205: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 201: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 108: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 209: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 102: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 211: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 202: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 205: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 210: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 109: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 205: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 202: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 211: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 105: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 208: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 103: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 104: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 110: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 108: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4</t>
+  </si>
+  <si>
+    <t>Derslik 105: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 210: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 105: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 202: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 203: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 101: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 110: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 103: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 109: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 102: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 208: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 211: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 110: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 209: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 105: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 210: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
     <t>Derslik 102: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
   </si>
   <si>
-    <t>Derslik 101: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 211: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 208: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 105: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 211: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 103: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 102: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 205: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 204: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 201: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 208: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 108: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 103: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 102: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 101: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 110: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 210: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 109: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 204: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 104: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 201: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 204: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 205: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 211: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 102: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 108: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 110: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 108: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 210: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 111: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 201: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 101: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 103: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 208: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 108: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 203: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 204: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 202: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 205: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 104: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 111: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 208: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 105: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 108: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
-  </si>
-  <si>
-    <t>Derslik 109: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3</t>
-  </si>
-  <si>
-    <t>Derslik 205: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 104: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 210: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>Derslik 105: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 108: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 208: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 105: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 203: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1</t>
-  </si>
-  <si>
-    <t>Derslik 109: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 109: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 205: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 203: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Derslik 108: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 110: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 210: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 209: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 105: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 101: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 101: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 104: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 202: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 204: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 108: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 110: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 201: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 205: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 103: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 202: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 210: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 204: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 201: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 209: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 209: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 204: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 101: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 211: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 111: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 103: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 208: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 110: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 210: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 101: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 202: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 205: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+    <t>Derslik 210: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 204: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
+  </si>
+  <si>
+    <t>Derslik 103: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 105: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 102: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 202: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5</t>
+  </si>
+  <si>
+    <t>Derslik 203: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 105: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
   </si>
   <si>
     <t>Derslik 104: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
   </si>
   <si>
-    <t>Derslik 111: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 108: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5</t>
-  </si>
-  <si>
-    <t>Derslik 103: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 204: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 105: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 202: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 210: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 111: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Derslik 104: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 211: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 201: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 108: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 211: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 209: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 110: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 202: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+    <t>Derslik 204: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 104: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 103: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 110: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1</t>
+  </si>
+  <si>
+    <t>Derslik 208: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 203: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 208: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 110: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Derslik 103: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 111: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
   </si>
   <si>
     <t>Derslik 109: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
   </si>
   <si>
-    <t>Derslik 102: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+    <t>Derslik 201: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1473,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>157</v>
@@ -1496,7 +1496,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>157</v>
@@ -1513,13 +1513,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>157</v>
@@ -1536,13 +1536,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>157</v>
@@ -1559,13 +1559,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>157</v>
@@ -1582,13 +1582,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>157</v>
@@ -1605,7 +1605,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>43</v>
@@ -1625,22 +1625,22 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1651,19 +1651,19 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1674,13 +1674,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>157</v>
@@ -1697,13 +1697,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>157</v>
@@ -1720,19 +1720,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1743,13 +1743,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>157</v>
@@ -1766,19 +1766,19 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1789,19 +1789,19 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1812,13 +1812,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>157</v>
@@ -1835,7 +1835,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>53</v>
@@ -1847,7 +1847,7 @@
         <v>157</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1858,13 +1858,13 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>157</v>
@@ -1881,19 +1881,19 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1904,19 +1904,19 @@
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1927,13 +1927,13 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>157</v>
@@ -1953,16 +1953,16 @@
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1976,16 +1976,16 @@
         <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1996,13 +1996,13 @@
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>157</v>
@@ -2019,19 +2019,19 @@
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2039,22 +2039,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2065,19 +2065,19 @@
         <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2088,19 +2088,19 @@
         <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2111,19 +2111,19 @@
         <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2134,19 +2134,19 @@
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2154,22 +2154,22 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2177,22 +2177,22 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2203,19 +2203,19 @@
         <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2226,19 +2226,19 @@
         <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2255,13 +2255,13 @@
         <v>69</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2269,10 +2269,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>70</v>
@@ -2284,7 +2284,7 @@
         <v>157</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2295,19 +2295,19 @@
         <v>15</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2318,19 +2318,19 @@
         <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2341,19 +2341,19 @@
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2364,19 +2364,19 @@
         <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2390,16 +2390,16 @@
         <v>23</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2410,19 +2410,19 @@
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2433,42 +2433,42 @@
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2479,19 +2479,19 @@
         <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2505,16 +2505,16 @@
         <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2525,19 +2525,19 @@
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2548,16 +2548,16 @@
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>180</v>
@@ -2568,22 +2568,22 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2594,19 +2594,19 @@
         <v>13</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2617,19 +2617,19 @@
         <v>13</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2640,19 +2640,19 @@
         <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2663,19 +2663,19 @@
         <v>13</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2686,19 +2686,19 @@
         <v>13</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2706,22 +2706,22 @@
         <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2732,19 +2732,19 @@
         <v>14</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2755,19 +2755,19 @@
         <v>14</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2778,19 +2778,19 @@
         <v>14</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2801,19 +2801,19 @@
         <v>14</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2821,22 +2821,22 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2847,10 +2847,10 @@
         <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>146</v>
@@ -2859,7 +2859,7 @@
         <v>157</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2870,19 +2870,19 @@
         <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2893,19 +2893,19 @@
         <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2916,10 +2916,10 @@
         <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>145</v>
@@ -2928,7 +2928,7 @@
         <v>157</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2939,19 +2939,19 @@
         <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2962,19 +2962,19 @@
         <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2985,13 +2985,13 @@
         <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>157</v>
@@ -3008,10 +3008,10 @@
         <v>15</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>153</v>
@@ -3020,7 +3020,7 @@
         <v>157</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3031,19 +3031,19 @@
         <v>12</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3054,13 +3054,13 @@
         <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>157</v>
@@ -3077,19 +3077,19 @@
         <v>12</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3100,19 +3100,19 @@
         <v>12</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3123,19 +3123,19 @@
         <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3146,13 +3146,13 @@
         <v>13</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>157</v>
@@ -3169,19 +3169,19 @@
         <v>13</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3192,19 +3192,19 @@
         <v>13</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3215,19 +3215,19 @@
         <v>13</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3238,19 +3238,19 @@
         <v>13</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3261,19 +3261,19 @@
         <v>13</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3284,19 +3284,19 @@
         <v>14</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3307,19 +3307,19 @@
         <v>14</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3330,19 +3330,19 @@
         <v>14</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3353,19 +3353,19 @@
         <v>14</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3376,13 +3376,13 @@
         <v>14</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>157</v>
@@ -3399,13 +3399,13 @@
         <v>15</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>157</v>
@@ -3422,19 +3422,19 @@
         <v>15</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3445,19 +3445,19 @@
         <v>15</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3468,19 +3468,19 @@
         <v>15</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3491,19 +3491,19 @@
         <v>15</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3514,19 +3514,19 @@
         <v>15</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3540,16 +3540,16 @@
         <v>19</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3560,36 +3560,36 @@
         <v>15</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>157</v>
@@ -3606,19 +3606,19 @@
         <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3629,19 +3629,19 @@
         <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3652,19 +3652,19 @@
         <v>12</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3675,19 +3675,19 @@
         <v>12</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3698,19 +3698,19 @@
         <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3721,19 +3721,19 @@
         <v>13</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3744,19 +3744,19 @@
         <v>13</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>158</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3767,19 +3767,19 @@
         <v>13</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3790,19 +3790,19 @@
         <v>13</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3813,19 +3813,19 @@
         <v>13</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3836,19 +3836,19 @@
         <v>13</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3859,10 +3859,10 @@
         <v>14</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>136</v>
@@ -3871,7 +3871,7 @@
         <v>157</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3882,19 +3882,19 @@
         <v>14</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3905,19 +3905,19 @@
         <v>14</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3928,19 +3928,19 @@
         <v>14</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3951,10 +3951,10 @@
         <v>15</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>153</v>
@@ -3974,19 +3974,19 @@
         <v>15</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3997,10 +3997,10 @@
         <v>15</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>145</v>
@@ -4020,19 +4020,19 @@
         <v>15</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4043,19 +4043,19 @@
         <v>15</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4066,19 +4066,19 @@
         <v>15</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4089,19 +4089,19 @@
         <v>15</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4112,19 +4112,19 @@
         <v>15</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4170,7 +4170,7 @@
         <v>195</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>205</v>
@@ -4185,7 +4185,7 @@
         <v>196</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>206</v>
@@ -4200,7 +4200,7 @@
         <v>197</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>207</v>
@@ -4215,7 +4215,7 @@
         <v>198</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>208</v>
@@ -4229,9 +4229,7 @@
       <c r="C6" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
         <v>209</v>
       </c>
@@ -4239,7 +4237,9 @@
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="4" t="s">
         <v>210</v>
@@ -4271,13 +4271,13 @@
         <v>213</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4286,13 +4286,13 @@
         <v>214</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4301,13 +4301,13 @@
         <v>215</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4316,13 +4316,13 @@
         <v>216</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4331,22 +4331,24 @@
         <v>217</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>227</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4355,7 +4357,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4364,7 +4366,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4372,87 +4374,87 @@
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4461,7 +4463,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4470,104 +4472,104 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="E26" s="4" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
-        <v>265</v>
-      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>276</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4576,7 +4578,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4585,7 +4587,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4593,7 +4595,7 @@
         <v>11</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>291</v>
@@ -4608,7 +4610,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>292</v>
@@ -4623,7 +4625,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>293</v>
@@ -4638,7 +4640,7 @@
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>294</v>
@@ -4653,7 +4655,7 @@
     <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>295</v>
@@ -4665,9 +4667,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3"/>
-      <c r="B40" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="4" t="s">
         <v>296</v>
       </c>
@@ -4698,8 +4698,8 @@
   <mergeCells count="5">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A34"/>
     <mergeCell ref="A35:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ders_programi_tam_rapor.xlsx
+++ b/ders_programi_tam_rapor.xlsx
@@ -71,411 +71,411 @@
     <t>Derslik 110</t>
   </si>
   <si>
+    <t>Derslik 109</t>
+  </si>
+  <si>
+    <t>Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 101</t>
+  </si>
+  <si>
+    <t>Derslik 204</t>
+  </si>
+  <si>
     <t>Derslik 108</t>
   </si>
   <si>
+    <t>Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 210</t>
+  </si>
+  <si>
+    <t>Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 205</t>
+  </si>
+  <si>
     <t>Derslik 103</t>
   </si>
   <si>
-    <t>Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 101</t>
-  </si>
-  <si>
-    <t>Derslik 111</t>
+    <t>Derslik 105</t>
   </si>
   <si>
     <t>Derslik 202</t>
   </si>
   <si>
+    <t>Derslik 104</t>
+  </si>
+  <si>
     <t>Derslik 201</t>
   </si>
   <si>
-    <t>Derslik 105</t>
-  </si>
-  <si>
     <t>Derslik 208</t>
   </si>
   <si>
-    <t>Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 204</t>
-  </si>
-  <si>
-    <t>Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 109</t>
-  </si>
-  <si>
-    <t>Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 211</t>
+    <t>Stratejik Stok Yönetimi</t>
+  </si>
+  <si>
+    <t>İleri Örgüt Sosyolojisi</t>
+  </si>
+  <si>
+    <t>Üretim ve İşlemler Yönetimi</t>
+  </si>
+  <si>
+    <t>Araştırma Yöntemleri (Çift)</t>
+  </si>
+  <si>
+    <t>Financial Management I</t>
+  </si>
+  <si>
+    <t>Marketing Management I</t>
+  </si>
+  <si>
+    <t>Üretimde Yenilik ve Teknoloji Yönetimi</t>
+  </si>
+  <si>
+    <t>Enformetri</t>
+  </si>
+  <si>
+    <t>Borçlar Hukuku</t>
+  </si>
+  <si>
+    <t>Bilimsel Araştırma Yöntemleri ve Etik</t>
+  </si>
+  <si>
+    <t>Sosyoloji</t>
+  </si>
+  <si>
+    <t>Organizational Behavior (Tek)</t>
+  </si>
+  <si>
+    <t>Global Marketing (Çift)</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları A</t>
+  </si>
+  <si>
+    <t>Ticaret Hukuku</t>
+  </si>
+  <si>
+    <t>Stratejik Yatırım Kararları ve Planlama</t>
+  </si>
+  <si>
+    <t>Stratejik İşletme Finansı</t>
+  </si>
+  <si>
+    <t>Finansal Muhasebe</t>
+  </si>
+  <si>
+    <t>Üretim İşlemler Stratejisi</t>
+  </si>
+  <si>
+    <t>Örgüt Sosyolojisi</t>
+  </si>
+  <si>
+    <t>Reklamcılık Yönetimi</t>
+  </si>
+  <si>
+    <t>E-Pazarlama</t>
+  </si>
+  <si>
+    <t>Tedarik Zinciri Yönetimi ve Lojistik</t>
+  </si>
+  <si>
+    <t>Yönetim Geliştirme</t>
+  </si>
+  <si>
+    <t>Teknoloji ve Sanayi Dinamikleri</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları</t>
+  </si>
+  <si>
+    <t>Yönetim Bilişim Sistemleri</t>
+  </si>
+  <si>
+    <t>Girişimcilik ve KOBİ Yönetimi</t>
+  </si>
+  <si>
+    <t>Stratejik Yönetimde Güncel Konular</t>
+  </si>
+  <si>
+    <t>Operations Research I</t>
+  </si>
+  <si>
+    <t>Organizational Behavior (Çift)</t>
+  </si>
+  <si>
+    <t>Kariyer Planlama</t>
+  </si>
+  <si>
+    <t>Hizmet Pazarlaması</t>
+  </si>
+  <si>
+    <t>Değişim Yönetimi ve Yönetim Danışmanlığı</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları B</t>
+  </si>
+  <si>
+    <t>Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetimi</t>
+  </si>
+  <si>
+    <t>Akıllı Karar Modelleri</t>
+  </si>
+  <si>
+    <t>Pazarlama Yönetimi</t>
+  </si>
+  <si>
+    <t>Vadeli İşlem Piyasaları</t>
+  </si>
+  <si>
+    <t>İşlemler Yönetimi</t>
+  </si>
+  <si>
+    <t>Pazarlama Kuramı</t>
   </si>
   <si>
     <t>Yatırım Yönetimi</t>
   </si>
   <si>
-    <t>Örgüt Sosyolojisi</t>
+    <t>Modelleme ve Optimizasyon</t>
+  </si>
+  <si>
+    <t>Mali Tablolar Analizi</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar</t>
+  </si>
+  <si>
+    <t>Pazarlamada Güncel Konular</t>
+  </si>
+  <si>
+    <t>Introduction to Microeconomics</t>
+  </si>
+  <si>
+    <t>Stok Yönetimi</t>
+  </si>
+  <si>
+    <t>Yönetimde Güncel Yaklaşımlar</t>
+  </si>
+  <si>
+    <t>İleri Örgütsel Davranış</t>
+  </si>
+  <si>
+    <t>Muhasebe I</t>
+  </si>
+  <si>
+    <t>System Analysis and Design</t>
+  </si>
+  <si>
+    <t>Matematik-I (Tek)</t>
+  </si>
+  <si>
+    <t>Proje Yönetimi</t>
+  </si>
+  <si>
+    <t>Örgütler ve Yönetim</t>
+  </si>
+  <si>
+    <t>Yönetim Atölyesi</t>
+  </si>
+  <si>
+    <t>Sermaye Piyasaları ve Menkul Kıymetler Analizi</t>
+  </si>
+  <si>
+    <t>Kurumsal Koçluk ve Mentorluk</t>
+  </si>
+  <si>
+    <t>Lojistik ve Tedarik Zincirinde Güncel Konular</t>
+  </si>
+  <si>
+    <t>Stratejik Finans Yönetimi</t>
+  </si>
+  <si>
+    <t>Perakendecilik</t>
+  </si>
+  <si>
+    <t>Yatırım Analizi ve Portföy Yönetimi</t>
+  </si>
+  <si>
+    <t>Bilgi Yönetimi</t>
+  </si>
+  <si>
+    <t>Araştırma Yöntemleri (Tek)</t>
+  </si>
+  <si>
+    <t>Türk Dili I</t>
+  </si>
+  <si>
+    <t>Sürdürülebilir Pazarlama</t>
+  </si>
+  <si>
+    <t>İleri Üretim Çizelgeleme</t>
+  </si>
+  <si>
+    <t>Vestel İşletmecilik Seminerleri I</t>
+  </si>
+  <si>
+    <t>Consumer Behavior (Çift)</t>
+  </si>
+  <si>
+    <t>İşletme Hukuku</t>
+  </si>
+  <si>
+    <t>Örgütsel Davranış</t>
+  </si>
+  <si>
+    <t>Consumer Behavior (Tek)</t>
   </si>
   <si>
     <t>Dijital Dönüşümün Yönetimi</t>
   </si>
   <si>
-    <t>Mali Tablolar Analizi</t>
-  </si>
-  <si>
-    <t>Financial Management I</t>
-  </si>
-  <si>
-    <t>Marketing Management I</t>
-  </si>
-  <si>
-    <t>Üretimde Yenilik ve Teknoloji Yönetimi</t>
-  </si>
-  <si>
-    <t>Modelleme ve Optimizasyon</t>
-  </si>
-  <si>
-    <t>Araştırma Yöntemleri (Çift)</t>
-  </si>
-  <si>
-    <t>Örgütsel Davranış</t>
+    <t>Yönetimin Felsefi Temelleri</t>
+  </si>
+  <si>
+    <t>Yönetim Muhasebesi</t>
+  </si>
+  <si>
+    <t>Matematik-I (Çift)</t>
+  </si>
+  <si>
+    <t>Endüstriyel Pazarlama</t>
+  </si>
+  <si>
+    <t>Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri</t>
+  </si>
+  <si>
+    <t>Uluslararası Finansman</t>
+  </si>
+  <si>
+    <t>Stratejik Pazarlama Yönetimi</t>
+  </si>
+  <si>
+    <t>Veri Odaklı Üretim Planlama Stratejileri</t>
+  </si>
+  <si>
+    <t>E-İş ve Kurumsal Kaynak Planlama</t>
+  </si>
+  <si>
+    <t>İstatistik I</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Human Resources Management</t>
   </si>
   <si>
     <t>Küresel Tedarik Zinciri ve Lojistik</t>
   </si>
   <si>
+    <t>Üretim Çizelgeleme</t>
+  </si>
+  <si>
+    <t>Uygulamalı Finansal Piyasa İşlemleri</t>
+  </si>
+  <si>
+    <t>Atatürk İlkeleri ve İnkılap Tarihi I</t>
+  </si>
+  <si>
+    <t>Global Marketing (Tek)</t>
+  </si>
+  <si>
+    <t>Management Consultancy</t>
+  </si>
+  <si>
+    <t>Seminer</t>
+  </si>
+  <si>
     <t>Teknoloji Yönetiminin Esasları</t>
   </si>
   <si>
     <t>Hukukun Temel Kavramları (Örgün + İ.Ö.)</t>
   </si>
   <si>
-    <t>Yönetimin Felsefi Temelleri</t>
-  </si>
-  <si>
-    <t>Global Marketing (Çift)</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları A</t>
-  </si>
-  <si>
-    <t>Uluslararası Finansman</t>
-  </si>
-  <si>
-    <t>Örgütler ve Yönetim</t>
-  </si>
-  <si>
-    <t>Bilimsel Araştırma Yöntemleri ve Etik</t>
-  </si>
-  <si>
-    <t>Vadeli İşlem Piyasaları</t>
-  </si>
-  <si>
-    <t>Kurumsal Koçluk ve Mentorluk</t>
-  </si>
-  <si>
-    <t>Stratejik Yatırım Kararları ve Planlama</t>
-  </si>
-  <si>
-    <t>Stratejik İşletme Finansı</t>
-  </si>
-  <si>
-    <t>Üretim İşlemler Stratejisi</t>
-  </si>
-  <si>
-    <t>Consumer Behavior (Çift)</t>
-  </si>
-  <si>
-    <t>Borçlar Hukuku</t>
-  </si>
-  <si>
-    <t>İleri Örgütsel Davranış</t>
-  </si>
-  <si>
-    <t>Üretim Çizelgeleme</t>
-  </si>
-  <si>
-    <t>Teknoloji ve Sanayi Dinamikleri</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları</t>
-  </si>
-  <si>
-    <t>Yönetim Bilişim Sistemleri</t>
-  </si>
-  <si>
-    <t>Yönetimde Güncel Yaklaşımlar</t>
-  </si>
-  <si>
-    <t>Consumer Behavior (Tek)</t>
-  </si>
-  <si>
-    <t>Tedarik Zinciri Yönetimi ve Lojistik</t>
-  </si>
-  <si>
-    <t>Stratejik Stok Yönetimi</t>
-  </si>
-  <si>
-    <t>Yönetim Muhasebesi</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları B</t>
-  </si>
-  <si>
-    <t>Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme</t>
-  </si>
-  <si>
-    <t>İşlemler Yönetimi</t>
-  </si>
-  <si>
-    <t>Yönetim Atölyesi</t>
-  </si>
-  <si>
-    <t>Stratejik Finans Yönetimi</t>
-  </si>
-  <si>
-    <t>Pazarlama Kuramı</t>
-  </si>
-  <si>
-    <t>Enformetri</t>
-  </si>
-  <si>
-    <t>Araştırma Yöntemleri (Tek)</t>
-  </si>
-  <si>
-    <t>E-Pazarlama</t>
-  </si>
-  <si>
-    <t>Yönetim Geliştirme</t>
-  </si>
-  <si>
-    <t>Introduction to Microeconomics</t>
-  </si>
-  <si>
-    <t>Stok Yönetimi</t>
-  </si>
-  <si>
-    <t>Üretim ve İşlemler Yönetimi</t>
-  </si>
-  <si>
-    <t>Organizational Behavior (Tek)</t>
-  </si>
-  <si>
-    <t>Pazarlamada Güncel Konular</t>
-  </si>
-  <si>
-    <t>Sosyoloji</t>
-  </si>
-  <si>
     <t>Retailing I</t>
   </si>
   <si>
-    <t>Pazarlama Yönetimi</t>
+    <t>Operations Management I</t>
   </si>
   <si>
     <t>Malzeme ve Stok Yönetimi</t>
   </si>
   <si>
-    <t>Akıllı Karar Modelleri</t>
-  </si>
-  <si>
-    <t>Ticaret Hukuku</t>
-  </si>
-  <si>
-    <t>Perakendecilik</t>
-  </si>
-  <si>
-    <t>E-İş ve Kurumsal Kaynak Planlama</t>
-  </si>
-  <si>
-    <t>İleri Örgüt Sosyolojisi</t>
-  </si>
-  <si>
-    <t>Girişimcilik ve KOBİ Yönetimi</t>
-  </si>
-  <si>
-    <t>Kariyer Planlama</t>
-  </si>
-  <si>
-    <t>Sürdürülebilir Pazarlama</t>
-  </si>
-  <si>
-    <t>Vestel İşletmecilik Seminerleri I</t>
-  </si>
-  <si>
-    <t>Reklamcılık Yönetimi</t>
-  </si>
-  <si>
-    <t>İşletme Hukuku</t>
-  </si>
-  <si>
-    <t>Türk Dili I</t>
-  </si>
-  <si>
-    <t>Hizmet Pazarlaması</t>
-  </si>
-  <si>
-    <t>İleri Üretim Çizelgeleme</t>
-  </si>
-  <si>
-    <t>İstatistik I</t>
-  </si>
-  <si>
-    <t>System Analysis and Design</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Stratejik Yönetimde Güncel Konular</t>
-  </si>
-  <si>
-    <t>Endüstriyel Pazarlama</t>
-  </si>
-  <si>
-    <t>Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri</t>
-  </si>
-  <si>
-    <t>Proje Yönetimi</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetimi</t>
-  </si>
-  <si>
-    <t>Sermaye Piyasaları ve Menkul Kıymetler Analizi</t>
-  </si>
-  <si>
-    <t>Stratejik Pazarlama Yönetimi</t>
-  </si>
-  <si>
-    <t>Veri Odaklı Üretim Planlama Stratejileri</t>
-  </si>
-  <si>
-    <t>Muhasebe I</t>
-  </si>
-  <si>
-    <t>Bilgi Yönetimi</t>
-  </si>
-  <si>
-    <t>Matematik-I (Çift)</t>
-  </si>
-  <si>
-    <t>Human Resources Management</t>
-  </si>
-  <si>
-    <t>Management Consultancy</t>
-  </si>
-  <si>
-    <t>Uygulamalı Finansal Piyasa İşlemleri</t>
-  </si>
-  <si>
-    <t>Atatürk İlkeleri ve İnkılap Tarihi I</t>
-  </si>
-  <si>
-    <t>Global Marketing (Tek)</t>
-  </si>
-  <si>
-    <t>Operations Management I</t>
-  </si>
-  <si>
-    <t>Seminer</t>
-  </si>
-  <si>
-    <t>Operations Research I</t>
-  </si>
-  <si>
-    <t>Yatırım Analizi ve Portföy Yönetimi</t>
-  </si>
-  <si>
-    <t>Organizational Behavior (Çift)</t>
-  </si>
-  <si>
-    <t>Matematik-I (Tek)</t>
-  </si>
-  <si>
-    <t>Değişim Yönetimi ve Yönetim Danışmanlığı</t>
-  </si>
-  <si>
     <t>İş Analitiğinde Sayısal Yöntemler</t>
   </si>
   <si>
-    <t>Lojistik ve Tedarik Zincirinde Güncel Konular</t>
-  </si>
-  <si>
     <t>Ağ Modelleri</t>
   </si>
   <si>
-    <t>Finansal Muhasebe</t>
+    <t>Üretim Yönetimi ve Sayısal Yöntemler Doktora</t>
+  </si>
+  <si>
+    <t>Yönetim ve Organizasyon Doktora</t>
+  </si>
+  <si>
+    <t>İşletme Tezli</t>
   </si>
   <si>
     <t>3. Sınıf</t>
   </si>
   <si>
+    <t>2. Sınıf</t>
+  </si>
+  <si>
+    <t>Üretim Yönetimi ve Sayısal Yöntemler Tezli</t>
+  </si>
+  <si>
+    <t>Yönetim Bilimi ve Organizasyon Tezli</t>
+  </si>
+  <si>
+    <t>1. Sınıf</t>
+  </si>
+  <si>
+    <t>4. Sınıf</t>
+  </si>
+  <si>
+    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Muhasebe ve Finansman İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>İşletme İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
     <t>İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli</t>
   </si>
   <si>
-    <t>İşletme Tezli</t>
-  </si>
-  <si>
-    <t>2. Sınıf</t>
-  </si>
-  <si>
-    <t>Üretim Yönetimi ve Sayısal Yöntemler Tezli</t>
-  </si>
-  <si>
-    <t>Üretim Yönetimi ve Sayısal Yöntemler Doktora</t>
-  </si>
-  <si>
-    <t>1. Sınıf</t>
-  </si>
-  <si>
-    <t>Yönetim ve Organizasyon Doktora</t>
-  </si>
-  <si>
-    <t>4. Sınıf</t>
-  </si>
-  <si>
-    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Muhasebe ve Finansman İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>İşletme İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Yönetim Bilimi ve Organizasyon Tezli</t>
+    <t>İşletme Tezli, Pazarlama Tezli</t>
   </si>
   <si>
     <t>İşletme Tezli, Üretim Yönetimi Tezli</t>
   </si>
   <si>
-    <t>İşletme Tezli, Pazarlama Tezli</t>
-  </si>
-  <si>
     <t>Pazarlama Tezli</t>
   </si>
   <si>
@@ -485,466 +485,466 @@
     <t>İşletme Doktora</t>
   </si>
   <si>
+    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
+  </si>
+  <si>
     <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
   </si>
   <si>
-    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
-  </si>
-  <si>
     <t>Zorunlu</t>
   </si>
   <si>
     <t>Seçmeli</t>
   </si>
   <si>
+    <t>Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
     <t>Araş. Gör. Dr. Özgür BABACAN</t>
   </si>
   <si>
-    <t>Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
     <t>ÖĞRETMEN 3</t>
   </si>
   <si>
+    <t>ÖĞRETMEN 1</t>
+  </si>
+  <si>
     <t>Prof. Dr. Aykan CANDEMİR</t>
   </si>
   <si>
     <t>Prof. Dr. İpek KAZANÇOĞLU</t>
   </si>
   <si>
+    <t>Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
     <t>ÖĞRETMEN 4</t>
   </si>
   <si>
-    <t>Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
     <t>ÖĞRETMEN 2</t>
   </si>
   <si>
     <t>ÖĞRETMEN 5</t>
   </si>
   <si>
-    <t>ÖĞRETMEN 1</t>
-  </si>
-  <si>
-    <t>Derslik 110: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 108: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 103: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 209: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 205: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 101: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 111: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 202: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 201: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 110: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 105: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 105: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+    <t>Derslik 110: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 109: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 111: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 211: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 111: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 204: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 108: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 203: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 111: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 205: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 103: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 209: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 203: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 202: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 109: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 104: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 101: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 211: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 202: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 201: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 204: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 102: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 211: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 201: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 105: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 108: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 203: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 109: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 201: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 211: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 105: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 201: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 210: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 111: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 204: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 202: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 211: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 110: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 209: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 211: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 105: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 204: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 104: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 109: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3</t>
+  </si>
+  <si>
+    <t>Derslik 111: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 210: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 101: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 210: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 204: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 103: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1</t>
+  </si>
+  <si>
+    <t>Derslik 109: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 102: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 104: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 201: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 109: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 105: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 108: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 103: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 203: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 102: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 204: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 111: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 203: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4</t>
+  </si>
+  <si>
+    <t>Derslik 108: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 211: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 210: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 202: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 104: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 202: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 108: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 104: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 105: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
+  </si>
+  <si>
+    <t>Derslik 208: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 202: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 205: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 110: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 210: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 204: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 209: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 103: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 202: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 209: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 104: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 101: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 208: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 202: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5</t>
+  </si>
+  <si>
+    <t>Derslik 208: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 103: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 209: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 108: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
   </si>
   <si>
     <t>Derslik 110: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
   </si>
   <si>
-    <t>Derslik 208: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 101: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 101: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 102: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 204: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 209: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 210: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 205: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 103: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 208: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 201: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 202: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 209: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 204: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 204: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 109: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 203: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 111: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 205: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 111: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 108: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 209: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 103: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 203: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 104: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 208: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 201: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 105: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 211: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 209: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 103: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 110: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 102: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 104: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3</t>
-  </si>
-  <si>
-    <t>Derslik 205: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 211: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 105: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 101: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 205: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 201: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 108: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 209: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 102: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 211: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 202: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 205: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 210: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 109: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 205: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 202: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 211: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 105: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 208: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 103: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 104: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 110: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 108: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>Derslik 105: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 210: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 105: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 202: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 203: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 101: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 110: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 103: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 109: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 102: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 208: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 211: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 110: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 209: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 105: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 210: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 210: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 204: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
-  </si>
-  <si>
-    <t>Derslik 103: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 105: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 102: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 202: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5</t>
-  </si>
-  <si>
-    <t>Derslik 203: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 105: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 104: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 204: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 104: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 103: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 110: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1</t>
-  </si>
-  <si>
-    <t>Derslik 208: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 203: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 208: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 110: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Derslik 103: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 111: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 109: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 201: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+    <t>Derslik 111: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 102: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 111: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 201: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 108: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 211: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 102: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 208: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 110: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 104: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1473,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>157</v>
@@ -1496,7 +1496,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>157</v>
@@ -1513,13 +1513,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>157</v>
@@ -1536,13 +1536,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>157</v>
@@ -1559,13 +1559,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>157</v>
@@ -1582,13 +1582,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>157</v>
@@ -1605,13 +1605,13 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>157</v>
@@ -1625,22 +1625,22 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1654,7 +1654,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>136</v>
@@ -1663,7 +1663,7 @@
         <v>157</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1674,19 +1674,19 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1700,16 +1700,16 @@
         <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1720,10 +1720,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>142</v>
@@ -1732,7 +1732,7 @@
         <v>157</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1743,10 +1743,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>143</v>
@@ -1766,10 +1766,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>144</v>
@@ -1778,7 +1778,7 @@
         <v>157</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1789,10 +1789,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>145</v>
@@ -1801,7 +1801,7 @@
         <v>157</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1812,10 +1812,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>146</v>
@@ -1824,7 +1824,7 @@
         <v>157</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1835,19 +1835,19 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1858,19 +1858,19 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1881,19 +1881,19 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1904,19 +1904,19 @@
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1927,13 +1927,13 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>157</v>
@@ -1950,19 +1950,19 @@
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1973,19 +1973,19 @@
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1996,19 +1996,19 @@
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2019,19 +2019,19 @@
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2045,16 +2045,16 @@
         <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2065,13 +2065,13 @@
         <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>157</v>
@@ -2088,13 +2088,13 @@
         <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>157</v>
@@ -2111,19 +2111,19 @@
         <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2134,19 +2134,19 @@
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2160,16 +2160,16 @@
         <v>22</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2180,19 +2180,19 @@
         <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2203,19 +2203,19 @@
         <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2226,19 +2226,19 @@
         <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2249,19 +2249,19 @@
         <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2275,16 +2275,16 @@
         <v>19</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2292,22 +2292,22 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2318,19 +2318,19 @@
         <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2344,16 +2344,16 @@
         <v>32</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2364,10 +2364,10 @@
         <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>147</v>
@@ -2376,7 +2376,7 @@
         <v>157</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2387,19 +2387,19 @@
         <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2410,19 +2410,19 @@
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2433,10 +2433,10 @@
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>144</v>
@@ -2445,7 +2445,7 @@
         <v>157</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2456,42 +2456,42 @@
         <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2502,19 +2502,19 @@
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2525,19 +2525,19 @@
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2548,19 +2548,19 @@
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2571,19 +2571,19 @@
         <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2591,22 +2591,22 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2614,13 +2614,13 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>150</v>
@@ -2629,7 +2629,7 @@
         <v>157</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2640,19 +2640,19 @@
         <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2663,19 +2663,19 @@
         <v>13</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2686,19 +2686,19 @@
         <v>13</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2709,19 +2709,19 @@
         <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2729,22 +2729,22 @@
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2755,19 +2755,19 @@
         <v>14</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2778,10 +2778,10 @@
         <v>14</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>142</v>
@@ -2790,7 +2790,7 @@
         <v>157</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2801,19 +2801,19 @@
         <v>14</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2824,19 +2824,19 @@
         <v>14</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2847,19 +2847,19 @@
         <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2870,19 +2870,19 @@
         <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2893,19 +2893,19 @@
         <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2916,19 +2916,19 @@
         <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2939,10 +2939,10 @@
         <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>147</v>
@@ -2951,7 +2951,7 @@
         <v>157</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2965,16 +2965,16 @@
         <v>20</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2985,19 +2985,19 @@
         <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3008,42 +3008,42 @@
         <v>15</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3054,19 +3054,19 @@
         <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3077,19 +3077,19 @@
         <v>12</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3100,19 +3100,19 @@
         <v>12</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3123,19 +3123,19 @@
         <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3143,22 +3143,22 @@
         <v>10</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3166,13 +3166,13 @@
         <v>10</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>134</v>
@@ -3181,7 +3181,7 @@
         <v>157</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3192,19 +3192,19 @@
         <v>13</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3215,19 +3215,19 @@
         <v>13</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3238,19 +3238,19 @@
         <v>13</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3261,19 +3261,19 @@
         <v>13</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3281,13 +3281,13 @@
         <v>10</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>137</v>
@@ -3296,7 +3296,7 @@
         <v>157</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3307,13 +3307,13 @@
         <v>14</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>157</v>
@@ -3330,19 +3330,19 @@
         <v>14</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3353,19 +3353,19 @@
         <v>14</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3376,19 +3376,19 @@
         <v>14</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3396,22 +3396,22 @@
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3425,16 +3425,16 @@
         <v>30</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3448,16 +3448,16 @@
         <v>27</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3468,10 +3468,10 @@
         <v>15</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>145</v>
@@ -3480,7 +3480,7 @@
         <v>157</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3491,19 +3491,19 @@
         <v>15</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3514,19 +3514,19 @@
         <v>15</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3537,10 +3537,10 @@
         <v>15</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>143</v>
@@ -3549,7 +3549,7 @@
         <v>157</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3560,19 +3560,19 @@
         <v>15</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3583,19 +3583,19 @@
         <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3606,10 +3606,10 @@
         <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>137</v>
@@ -3629,19 +3629,19 @@
         <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3652,19 +3652,19 @@
         <v>12</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3675,10 +3675,10 @@
         <v>12</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>142</v>
@@ -3687,7 +3687,7 @@
         <v>157</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3698,19 +3698,19 @@
         <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3718,22 +3718,22 @@
         <v>11</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3744,19 +3744,19 @@
         <v>13</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3767,19 +3767,19 @@
         <v>13</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3790,19 +3790,19 @@
         <v>13</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3813,19 +3813,19 @@
         <v>13</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3836,19 +3836,19 @@
         <v>13</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3859,10 +3859,10 @@
         <v>14</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>136</v>
@@ -3871,7 +3871,7 @@
         <v>157</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3882,19 +3882,19 @@
         <v>14</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3905,19 +3905,19 @@
         <v>14</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3928,19 +3928,19 @@
         <v>14</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3951,10 +3951,10 @@
         <v>15</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>153</v>
@@ -3974,19 +3974,19 @@
         <v>15</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3997,19 +3997,19 @@
         <v>15</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4020,19 +4020,19 @@
         <v>15</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4043,10 +4043,10 @@
         <v>15</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>145</v>
@@ -4055,7 +4055,7 @@
         <v>157</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4066,19 +4066,19 @@
         <v>15</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4089,10 +4089,10 @@
         <v>15</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>146</v>
@@ -4101,7 +4101,7 @@
         <v>157</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4112,19 +4112,19 @@
         <v>15</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4170,7 +4170,7 @@
         <v>195</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>205</v>
@@ -4185,7 +4185,7 @@
         <v>196</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>206</v>
@@ -4200,7 +4200,7 @@
         <v>197</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>207</v>
@@ -4215,7 +4215,7 @@
         <v>198</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>208</v>
@@ -4229,7 +4229,9 @@
       <c r="C6" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>209</v>
       </c>
@@ -4237,9 +4239,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="4" t="s">
         <v>210</v>
@@ -4277,7 +4277,7 @@
         <v>225</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4292,7 +4292,7 @@
         <v>226</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4307,7 +4307,7 @@
         <v>227</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4322,7 +4322,7 @@
         <v>228</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4333,9 +4333,11 @@
       <c r="C14" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4348,7 +4350,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4357,7 +4359,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4366,7 +4368,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4374,13 +4376,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>253</v>
@@ -4389,13 +4391,13 @@
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>254</v>
@@ -4404,13 +4406,13 @@
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>255</v>
@@ -4419,13 +4421,13 @@
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>256</v>
@@ -4434,24 +4436,22 @@
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>252</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="B23" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="s">
         <v>258</v>
@@ -4476,29 +4476,23 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>273</v>
@@ -4513,7 +4507,7 @@
         <v>263</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>274</v>
@@ -4528,7 +4522,7 @@
         <v>264</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>275</v>
@@ -4543,7 +4537,7 @@
         <v>265</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>276</v>
@@ -4554,18 +4548,24 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="C31" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="E31" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="4" t="s">
@@ -4598,7 +4598,7 @@
         <v>286</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>297</v>
@@ -4613,7 +4613,7 @@
         <v>287</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>298</v>
@@ -4628,7 +4628,7 @@
         <v>288</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>299</v>
@@ -4643,7 +4643,7 @@
         <v>289</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>300</v>
@@ -4658,7 +4658,7 @@
         <v>290</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="4" t="s">
@@ -4667,10 +4667,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="4" t="s">
-        <v>296</v>
-      </c>
+      <c r="B40" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="4" t="s">
         <v>306</v>
@@ -4698,8 +4698,8 @@
   <mergeCells count="5">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A27:A34"/>
     <mergeCell ref="A35:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ders_programi_tam_rapor.xlsx
+++ b/ders_programi_tam_rapor.xlsx
@@ -71,420 +71,420 @@
     <t>Derslik 110</t>
   </si>
   <si>
+    <t>Derslik 104</t>
+  </si>
+  <si>
+    <t>Derslik 208</t>
+  </si>
+  <si>
+    <t>Derslik 205</t>
+  </si>
+  <si>
+    <t>Derslik 209</t>
+  </si>
+  <si>
+    <t>Derslik 111</t>
+  </si>
+  <si>
+    <t>Derslik 203</t>
+  </si>
+  <si>
+    <t>Derslik 102</t>
+  </si>
+  <si>
+    <t>Derslik 202</t>
+  </si>
+  <si>
+    <t>Derslik 201</t>
+  </si>
+  <si>
+    <t>Derslik 211</t>
+  </si>
+  <si>
+    <t>Derslik 210</t>
+  </si>
+  <si>
     <t>Derslik 109</t>
   </si>
   <si>
-    <t>Derslik 111</t>
-  </si>
-  <si>
-    <t>Derslik 211</t>
-  </si>
-  <si>
     <t>Derslik 101</t>
   </si>
   <si>
+    <t>Derslik 103</t>
+  </si>
+  <si>
+    <t>Derslik 105</t>
+  </si>
+  <si>
+    <t>Derslik 108</t>
+  </si>
+  <si>
     <t>Derslik 204</t>
   </si>
   <si>
-    <t>Derslik 108</t>
-  </si>
-  <si>
-    <t>Derslik 203</t>
-  </si>
-  <si>
-    <t>Derslik 102</t>
-  </si>
-  <si>
-    <t>Derslik 210</t>
-  </si>
-  <si>
-    <t>Derslik 209</t>
-  </si>
-  <si>
-    <t>Derslik 205</t>
-  </si>
-  <si>
-    <t>Derslik 103</t>
-  </si>
-  <si>
-    <t>Derslik 105</t>
-  </si>
-  <si>
-    <t>Derslik 202</t>
-  </si>
-  <si>
-    <t>Derslik 104</t>
-  </si>
-  <si>
-    <t>Derslik 201</t>
-  </si>
-  <si>
-    <t>Derslik 208</t>
+    <t>Sosyoloji</t>
+  </si>
+  <si>
+    <t>Enformetri</t>
+  </si>
+  <si>
+    <t>Üretim ve İşlemler Yönetimi</t>
+  </si>
+  <si>
+    <t>Organizational Behavior (Tek)</t>
+  </si>
+  <si>
+    <t>Küresel Tedarik Zinciri ve Lojistik</t>
+  </si>
+  <si>
+    <t>Marketing Management I</t>
+  </si>
+  <si>
+    <t>Üretimde Yenilik ve Teknoloji Yönetimi</t>
+  </si>
+  <si>
+    <t>Araştırma Yöntemleri (Çift)</t>
+  </si>
+  <si>
+    <t>Borçlar Hukuku</t>
+  </si>
+  <si>
+    <t>Yönetimde Güncel Yaklaşımlar</t>
+  </si>
+  <si>
+    <t>Üretim Çizelgeleme</t>
+  </si>
+  <si>
+    <t>İstatistik I</t>
+  </si>
+  <si>
+    <t>System Analysis and Design</t>
+  </si>
+  <si>
+    <t>Matematik-I (Tek)</t>
+  </si>
+  <si>
+    <t>İleri Örgütsel Davranış</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları A</t>
+  </si>
+  <si>
+    <t>Örgütler ve Yönetim</t>
+  </si>
+  <si>
+    <t>Bilimsel Araştırma Yöntemleri ve Etik</t>
+  </si>
+  <si>
+    <t>Ticaret Hukuku</t>
+  </si>
+  <si>
+    <t>Yönetim Atölyesi</t>
+  </si>
+  <si>
+    <t>Lojistik ve Tedarik Zincirinde Güncel Konular</t>
+  </si>
+  <si>
+    <t>Stratejik Finans Yönetimi</t>
+  </si>
+  <si>
+    <t>Endüstriyel Pazarlama</t>
+  </si>
+  <si>
+    <t>Veri Odaklı Üretim Planlama Stratejileri</t>
+  </si>
+  <si>
+    <t>Üretim İşlemler Stratejisi</t>
+  </si>
+  <si>
+    <t>Consumer Behavior (Çift)</t>
+  </si>
+  <si>
+    <t>Araştırma Yöntemleri (Tek)</t>
+  </si>
+  <si>
+    <t>Örgütsel Davranış</t>
+  </si>
+  <si>
+    <t>Sürdürülebilir Pazarlama</t>
+  </si>
+  <si>
+    <t>Pazarlamada Güncel Konular</t>
+  </si>
+  <si>
+    <t>Teknoloji ve Sanayi Dinamikleri</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları</t>
+  </si>
+  <si>
+    <t>Modelleme ve Optimizasyon</t>
+  </si>
+  <si>
+    <t>Mali Tablolar Analizi</t>
+  </si>
+  <si>
+    <t>Consumer Behavior (Tek)</t>
   </si>
   <si>
     <t>Stratejik Stok Yönetimi</t>
   </si>
   <si>
+    <t>Stratejik Yönetimde Güncel Konular</t>
+  </si>
+  <si>
+    <t>Tüketici Davranışları B</t>
+  </si>
+  <si>
+    <t>Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme</t>
+  </si>
+  <si>
+    <t>Sermaye Piyasaları ve Menkul Kıymetler Analizi</t>
+  </si>
+  <si>
+    <t>Stratejik İşletme Finansı</t>
+  </si>
+  <si>
+    <t>Pazarlama Yönetimi</t>
+  </si>
+  <si>
+    <t>Pazarlama Kuramı</t>
+  </si>
+  <si>
+    <t>Yatırım Yönetimi</t>
+  </si>
+  <si>
+    <t>Örgüt Sosyolojisi</t>
+  </si>
+  <si>
+    <t>E-Pazarlama</t>
+  </si>
+  <si>
+    <t>Tedarik Zinciri Yönetimi ve Lojistik</t>
+  </si>
+  <si>
+    <t>Yönetim Geliştirme</t>
+  </si>
+  <si>
+    <t>Introduction to Microeconomics</t>
+  </si>
+  <si>
+    <t>Stok Yönetimi</t>
+  </si>
+  <si>
+    <t>Yönetim Bilişim Sistemleri</t>
+  </si>
+  <si>
+    <t>İleri Üretim Çizelgeleme</t>
+  </si>
+  <si>
+    <t>Muhasebe I</t>
+  </si>
+  <si>
+    <t>Yönetimin Felsefi Temelleri</t>
+  </si>
+  <si>
+    <t>Kariyer Planlama</t>
+  </si>
+  <si>
+    <t>Değişim Yönetimi ve Yönetim Danışmanlığı</t>
+  </si>
+  <si>
+    <t>Proje Yönetimi</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetimi</t>
+  </si>
+  <si>
+    <t>İşlemler Yönetimi</t>
+  </si>
+  <si>
+    <t>Vadeli İşlem Piyasaları</t>
+  </si>
+  <si>
+    <t>Perakendecilik</t>
+  </si>
+  <si>
+    <t>Ağ Modelleri</t>
+  </si>
+  <si>
+    <t>Yatırım Analizi ve Portföy Yönetimi</t>
+  </si>
+  <si>
+    <t>Bilgi Yönetimi</t>
+  </si>
+  <si>
+    <t>Girişimcilik ve KOBİ Yönetimi</t>
+  </si>
+  <si>
+    <t>Matematik-I (Çift)</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar</t>
+  </si>
+  <si>
+    <t>Vestel İşletmecilik Seminerleri I</t>
+  </si>
+  <si>
+    <t>Reklamcılık Yönetimi</t>
+  </si>
+  <si>
+    <t>İşletme Hukuku</t>
+  </si>
+  <si>
+    <t>Türk Dili I</t>
+  </si>
+  <si>
+    <t>Hizmet Pazarlaması</t>
+  </si>
+  <si>
     <t>İleri Örgüt Sosyolojisi</t>
   </si>
   <si>
-    <t>Üretim ve İşlemler Yönetimi</t>
-  </si>
-  <si>
-    <t>Araştırma Yöntemleri (Çift)</t>
+    <t>Dijital Dönüşümün Yönetimi</t>
+  </si>
+  <si>
+    <t>Yönetim Muhasebesi</t>
+  </si>
+  <si>
+    <t>Global Marketing (Çift)</t>
+  </si>
+  <si>
+    <t>Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri</t>
+  </si>
+  <si>
+    <t>Uluslararası Finansman</t>
+  </si>
+  <si>
+    <t>İş Analitiğinde Sayısal Yöntemler</t>
+  </si>
+  <si>
+    <t>Akıllı Karar Modelleri</t>
+  </si>
+  <si>
+    <t>Kurumsal Koçluk ve Mentorluk</t>
+  </si>
+  <si>
+    <t>Stratejik Pazarlama Yönetimi</t>
+  </si>
+  <si>
+    <t>E-İş ve Kurumsal Kaynak Planlama</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Human Resources Management</t>
+  </si>
+  <si>
+    <t>Management Consultancy</t>
   </si>
   <si>
     <t>Financial Management I</t>
   </si>
   <si>
-    <t>Marketing Management I</t>
-  </si>
-  <si>
-    <t>Üretimde Yenilik ve Teknoloji Yönetimi</t>
-  </si>
-  <si>
-    <t>Enformetri</t>
-  </si>
-  <si>
-    <t>Borçlar Hukuku</t>
-  </si>
-  <si>
-    <t>Bilimsel Araştırma Yöntemleri ve Etik</t>
-  </si>
-  <si>
-    <t>Sosyoloji</t>
-  </si>
-  <si>
-    <t>Organizational Behavior (Tek)</t>
-  </si>
-  <si>
-    <t>Global Marketing (Çift)</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları A</t>
-  </si>
-  <si>
-    <t>Ticaret Hukuku</t>
+    <t>Uygulamalı Finansal Piyasa İşlemleri</t>
+  </si>
+  <si>
+    <t>Atatürk İlkeleri ve İnkılap Tarihi I</t>
+  </si>
+  <si>
+    <t>Global Marketing (Tek)</t>
+  </si>
+  <si>
+    <t>Operations Management I</t>
+  </si>
+  <si>
+    <t>Seminer</t>
+  </si>
+  <si>
+    <t>Operations Research I</t>
+  </si>
+  <si>
+    <t>Teknoloji Yönetiminin Esasları</t>
+  </si>
+  <si>
+    <t>Hukukun Temel Kavramları (Örgün + İ.Ö.)</t>
+  </si>
+  <si>
+    <t>Organizational Behavior (Çift)</t>
+  </si>
+  <si>
+    <t>Retailing I</t>
+  </si>
+  <si>
+    <t>Malzeme ve Stok Yönetimi</t>
   </si>
   <si>
     <t>Stratejik Yatırım Kararları ve Planlama</t>
   </si>
   <si>
-    <t>Stratejik İşletme Finansı</t>
-  </si>
-  <si>
     <t>Finansal Muhasebe</t>
   </si>
   <si>
-    <t>Üretim İşlemler Stratejisi</t>
-  </si>
-  <si>
-    <t>Örgüt Sosyolojisi</t>
-  </si>
-  <si>
-    <t>Reklamcılık Yönetimi</t>
-  </si>
-  <si>
-    <t>E-Pazarlama</t>
-  </si>
-  <si>
-    <t>Tedarik Zinciri Yönetimi ve Lojistik</t>
-  </si>
-  <si>
-    <t>Yönetim Geliştirme</t>
-  </si>
-  <si>
-    <t>Teknoloji ve Sanayi Dinamikleri</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları</t>
-  </si>
-  <si>
-    <t>Yönetim Bilişim Sistemleri</t>
-  </si>
-  <si>
-    <t>Girişimcilik ve KOBİ Yönetimi</t>
-  </si>
-  <si>
-    <t>Stratejik Yönetimde Güncel Konular</t>
-  </si>
-  <si>
-    <t>Operations Research I</t>
-  </si>
-  <si>
-    <t>Organizational Behavior (Çift)</t>
-  </si>
-  <si>
-    <t>Kariyer Planlama</t>
-  </si>
-  <si>
-    <t>Hizmet Pazarlaması</t>
-  </si>
-  <si>
-    <t>Değişim Yönetimi ve Yönetim Danışmanlığı</t>
-  </si>
-  <si>
-    <t>Tüketici Davranışları B</t>
-  </si>
-  <si>
-    <t>Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetimi</t>
-  </si>
-  <si>
-    <t>Akıllı Karar Modelleri</t>
-  </si>
-  <si>
-    <t>Pazarlama Yönetimi</t>
-  </si>
-  <si>
-    <t>Vadeli İşlem Piyasaları</t>
-  </si>
-  <si>
-    <t>İşlemler Yönetimi</t>
-  </si>
-  <si>
-    <t>Pazarlama Kuramı</t>
-  </si>
-  <si>
-    <t>Yatırım Yönetimi</t>
-  </si>
-  <si>
-    <t>Modelleme ve Optimizasyon</t>
-  </si>
-  <si>
-    <t>Mali Tablolar Analizi</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar</t>
-  </si>
-  <si>
-    <t>Pazarlamada Güncel Konular</t>
-  </si>
-  <si>
-    <t>Introduction to Microeconomics</t>
-  </si>
-  <si>
-    <t>Stok Yönetimi</t>
-  </si>
-  <si>
-    <t>Yönetimde Güncel Yaklaşımlar</t>
-  </si>
-  <si>
-    <t>İleri Örgütsel Davranış</t>
-  </si>
-  <si>
-    <t>Muhasebe I</t>
-  </si>
-  <si>
-    <t>System Analysis and Design</t>
-  </si>
-  <si>
-    <t>Matematik-I (Tek)</t>
-  </si>
-  <si>
-    <t>Proje Yönetimi</t>
-  </si>
-  <si>
-    <t>Örgütler ve Yönetim</t>
-  </si>
-  <si>
-    <t>Yönetim Atölyesi</t>
-  </si>
-  <si>
-    <t>Sermaye Piyasaları ve Menkul Kıymetler Analizi</t>
-  </si>
-  <si>
-    <t>Kurumsal Koçluk ve Mentorluk</t>
-  </si>
-  <si>
-    <t>Lojistik ve Tedarik Zincirinde Güncel Konular</t>
-  </si>
-  <si>
-    <t>Stratejik Finans Yönetimi</t>
-  </si>
-  <si>
-    <t>Perakendecilik</t>
-  </si>
-  <si>
-    <t>Yatırım Analizi ve Portföy Yönetimi</t>
-  </si>
-  <si>
-    <t>Bilgi Yönetimi</t>
-  </si>
-  <si>
-    <t>Araştırma Yöntemleri (Tek)</t>
-  </si>
-  <si>
-    <t>Türk Dili I</t>
-  </si>
-  <si>
-    <t>Sürdürülebilir Pazarlama</t>
-  </si>
-  <si>
-    <t>İleri Üretim Çizelgeleme</t>
-  </si>
-  <si>
-    <t>Vestel İşletmecilik Seminerleri I</t>
-  </si>
-  <si>
-    <t>Consumer Behavior (Çift)</t>
-  </si>
-  <si>
-    <t>İşletme Hukuku</t>
-  </si>
-  <si>
-    <t>Örgütsel Davranış</t>
-  </si>
-  <si>
-    <t>Consumer Behavior (Tek)</t>
-  </si>
-  <si>
-    <t>Dijital Dönüşümün Yönetimi</t>
-  </si>
-  <si>
-    <t>Yönetimin Felsefi Temelleri</t>
-  </si>
-  <si>
-    <t>Yönetim Muhasebesi</t>
-  </si>
-  <si>
-    <t>Matematik-I (Çift)</t>
-  </si>
-  <si>
-    <t>Endüstriyel Pazarlama</t>
-  </si>
-  <si>
-    <t>Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri</t>
-  </si>
-  <si>
-    <t>Uluslararası Finansman</t>
-  </si>
-  <si>
-    <t>Stratejik Pazarlama Yönetimi</t>
-  </si>
-  <si>
-    <t>Veri Odaklı Üretim Planlama Stratejileri</t>
-  </si>
-  <si>
-    <t>E-İş ve Kurumsal Kaynak Planlama</t>
-  </si>
-  <si>
-    <t>İstatistik I</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Human Resources Management</t>
-  </si>
-  <si>
-    <t>Küresel Tedarik Zinciri ve Lojistik</t>
-  </si>
-  <si>
-    <t>Üretim Çizelgeleme</t>
-  </si>
-  <si>
-    <t>Uygulamalı Finansal Piyasa İşlemleri</t>
-  </si>
-  <si>
-    <t>Atatürk İlkeleri ve İnkılap Tarihi I</t>
-  </si>
-  <si>
-    <t>Global Marketing (Tek)</t>
-  </si>
-  <si>
-    <t>Management Consultancy</t>
-  </si>
-  <si>
-    <t>Seminer</t>
-  </si>
-  <si>
-    <t>Teknoloji Yönetiminin Esasları</t>
-  </si>
-  <si>
-    <t>Hukukun Temel Kavramları (Örgün + İ.Ö.)</t>
-  </si>
-  <si>
-    <t>Retailing I</t>
-  </si>
-  <si>
-    <t>Operations Management I</t>
-  </si>
-  <si>
-    <t>Malzeme ve Stok Yönetimi</t>
-  </si>
-  <si>
-    <t>İş Analitiğinde Sayısal Yöntemler</t>
-  </si>
-  <si>
-    <t>Ağ Modelleri</t>
+    <t>1. Sınıf</t>
+  </si>
+  <si>
+    <t>3. Sınıf</t>
+  </si>
+  <si>
+    <t>İşletme Tezli</t>
+  </si>
+  <si>
+    <t>2. Sınıf</t>
+  </si>
+  <si>
+    <t>Üretim Yönetimi ve Sayısal Yöntemler Tezli</t>
+  </si>
+  <si>
+    <t>İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli</t>
+  </si>
+  <si>
+    <t>İşletme Tezli, Üretim Yönetimi Tezli</t>
+  </si>
+  <si>
+    <t>4. Sınıf</t>
+  </si>
+  <si>
+    <t>Yönetim ve Organizasyon Doktora</t>
+  </si>
+  <si>
+    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>İşletme İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Muhasebe ve Finansman İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz</t>
+  </si>
+  <si>
+    <t>Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz</t>
   </si>
   <si>
     <t>Üretim Yönetimi ve Sayısal Yöntemler Doktora</t>
   </si>
   <si>
-    <t>Yönetim ve Organizasyon Doktora</t>
-  </si>
-  <si>
-    <t>İşletme Tezli</t>
-  </si>
-  <si>
-    <t>3. Sınıf</t>
-  </si>
-  <si>
-    <t>2. Sınıf</t>
-  </si>
-  <si>
-    <t>Üretim Yönetimi ve Sayısal Yöntemler Tezli</t>
+    <t>İşletme Tezli, Pazarlama Tezli</t>
+  </si>
+  <si>
+    <t>Pazarlama Tezli</t>
+  </si>
+  <si>
+    <t>Uzaktan Öğretim İşletme Tezsiz</t>
+  </si>
+  <si>
+    <t>İşletme Doktora</t>
   </si>
   <si>
     <t>Yönetim Bilimi ve Organizasyon Tezli</t>
   </si>
   <si>
-    <t>1. Sınıf</t>
-  </si>
-  <si>
-    <t>4. Sınıf</t>
-  </si>
-  <si>
-    <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Muhasebe ve Finansman İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>İşletme İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz</t>
-  </si>
-  <si>
-    <t>İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli</t>
-  </si>
-  <si>
-    <t>İşletme Tezli, Pazarlama Tezli</t>
-  </si>
-  <si>
-    <t>İşletme Tezli, Üretim Yönetimi Tezli</t>
-  </si>
-  <si>
-    <t>Pazarlama Tezli</t>
-  </si>
-  <si>
-    <t>Uzaktan Öğretim İşletme Tezsiz</t>
-  </si>
-  <si>
-    <t>İşletme Doktora</t>
-  </si>
-  <si>
     <t>Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz</t>
   </si>
   <si>
@@ -497,454 +497,454 @@
     <t>Seçmeli</t>
   </si>
   <si>
+    <t>Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>ÖĞRETMEN 1</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
     <t>Doç. Dr. Aydın KOÇAK</t>
   </si>
   <si>
-    <t>Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
     <t>Prof. Dr. Burak ÇAPRAZ</t>
   </si>
   <si>
-    <t>Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
     <t>Doç. Dr. Sema AYDIN</t>
   </si>
   <si>
-    <t>Prof. Dr. Burcu ARACIOĞLU</t>
+    <t>Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>ÖĞRETMEN 3</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>ÖĞRETMEN 2</t>
+  </si>
+  <si>
+    <t>ÖĞRETMEN 4</t>
   </si>
   <si>
     <t>Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
-    <t>Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>ÖĞRETMEN 3</t>
-  </si>
-  <si>
-    <t>ÖĞRETMEN 1</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>ÖĞRETMEN 2</t>
-  </si>
-  <si>
     <t>ÖĞRETMEN 5</t>
   </si>
   <si>
-    <t>Derslik 110: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 109: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 111: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 211: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 101: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+    <t>Derslik 110: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 104: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 208: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 205: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 209: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
   </si>
   <si>
     <t>Derslik 111: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
   </si>
   <si>
-    <t>Derslik 204: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 108: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 203: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 111: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 205: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 103: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 209: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 203: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 202: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+    <t>Derslik 209: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 203: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 205: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 202: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 202: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 205: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 111: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1</t>
+  </si>
+  <si>
+    <t>Derslik 201: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 211: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 102: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 210: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 205: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 203: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 110: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 109: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 101: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 109: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 202: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 209: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 111: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 201: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 102: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 103: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 203: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 211: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 210: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 209: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 104: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 105: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 109: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 205: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 109: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 110: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 108: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 101: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 104: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 211: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 205: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 208: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 202: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 104: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 210: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 109: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 111: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3</t>
+  </si>
+  <si>
+    <t>Derslik 204: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 209: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 109: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 105: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 111: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 108: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 204: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 202: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 208: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 204: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 209: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 201: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 109: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 108: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 104: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 110: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 208: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 201: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 202: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 108: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
+  </si>
+  <si>
+    <t>Derslik 109: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 209: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 109: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
+  </si>
+  <si>
+    <t>Derslik 201: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
+  </si>
+  <si>
+    <t>Derslik 210: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4</t>
+  </si>
+  <si>
+    <t>Derslik 111: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 108: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 104: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
+  </si>
+  <si>
+    <t>Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 203: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 108: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 105: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
+  </si>
+  <si>
+    <t>Derslik 109: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+  <si>
+    <t>Derslik 202: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
+  </si>
+  <si>
+    <t>Derslik 104: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 111: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 201: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 102: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 108: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 109: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 209: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 204: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 209: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5</t>
+  </si>
+  <si>
+    <t>Derslik 205: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 101: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 203: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 110: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 111: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 208: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
+  </si>
+  <si>
+    <t>Derslik 204: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 101: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 201: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 210: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 102: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 202: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 105: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 108: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 205: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
   </si>
   <si>
     <t>Derslik 109: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 104: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 101: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 211: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 202: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 201: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 204: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 102: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 211: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 201: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 105: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 108: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 203: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 109: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 201: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 211: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 101: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 105: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 201: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 210: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 111: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 204: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 202: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 211: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 110: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 209: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 211: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 105: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 204: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 104: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 109: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3</t>
-  </si>
-  <si>
-    <t>Derslik 111: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 210: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 101: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 210: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 204: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 103: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1</t>
-  </si>
-  <si>
-    <t>Derslik 109: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 102: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 104: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ</t>
-  </si>
-  <si>
-    <t>Derslik 201: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 109: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 105: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 108: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 103: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 203: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 102: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 204: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 111: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 203: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4</t>
-  </si>
-  <si>
-    <t>Derslik 108: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 211: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 210: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN</t>
-  </si>
-  <si>
-    <t>Derslik 202: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 104: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 202: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 108: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL</t>
-  </si>
-  <si>
-    <t>Derslik 104: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI</t>
-  </si>
-  <si>
-    <t>Derslik 105: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
-  </si>
-  <si>
-    <t>Derslik 208: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 202: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 205: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN</t>
-  </si>
-  <si>
-    <t>Derslik 110: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ</t>
-  </si>
-  <si>
-    <t>Derslik 210: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
-  </si>
-  <si>
-    <t>Derslik 204: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 209: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 103: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 202: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 209: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 104: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 101: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 208: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 202: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5</t>
-  </si>
-  <si>
-    <t>Derslik 208: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 103: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 209: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 108: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN</t>
-  </si>
-  <si>
-    <t>Derslik 110: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN</t>
-  </si>
-  <si>
-    <t>Derslik 111: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 102: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 111: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 201: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK</t>
-  </si>
-  <si>
-    <t>Derslik 108: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL</t>
-  </si>
-  <si>
-    <t>Derslik 211: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 102: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 208: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 110: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 104: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1496,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>157</v>
@@ -1513,13 +1513,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>157</v>
@@ -1536,13 +1536,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>157</v>
@@ -1565,7 +1565,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>157</v>
@@ -1582,13 +1582,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>157</v>
@@ -1605,13 +1605,13 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>157</v>
@@ -1625,22 +1625,22 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1651,19 +1651,19 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1674,19 +1674,19 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1697,19 +1697,19 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1720,10 +1720,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>142</v>
@@ -1732,7 +1732,7 @@
         <v>157</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1743,10 +1743,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>143</v>
@@ -1766,10 +1766,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>144</v>
@@ -1778,7 +1778,7 @@
         <v>157</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1789,10 +1789,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>145</v>
@@ -1801,7 +1801,7 @@
         <v>157</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1812,19 +1812,19 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1835,13 +1835,13 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>157</v>
@@ -1858,19 +1858,19 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1881,10 +1881,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>145</v>
@@ -1893,7 +1893,7 @@
         <v>157</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1904,42 +1904,42 @@
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1950,10 +1950,10 @@
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>149</v>
@@ -1962,7 +1962,7 @@
         <v>157</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1973,19 +1973,19 @@
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1996,19 +1996,19 @@
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2019,19 +2019,19 @@
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2042,19 +2042,19 @@
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2062,22 +2062,22 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2088,19 +2088,19 @@
         <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2111,19 +2111,19 @@
         <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2134,19 +2134,19 @@
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2157,10 +2157,10 @@
         <v>13</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>135</v>
@@ -2169,7 +2169,7 @@
         <v>157</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2180,19 +2180,19 @@
         <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2203,19 +2203,19 @@
         <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2229,16 +2229,16 @@
         <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2249,19 +2249,19 @@
         <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2272,19 +2272,19 @@
         <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2295,19 +2295,19 @@
         <v>14</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2318,10 +2318,10 @@
         <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>143</v>
@@ -2341,10 +2341,10 @@
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>148</v>
@@ -2364,19 +2364,19 @@
         <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2387,13 +2387,13 @@
         <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>157</v>
@@ -2410,10 +2410,10 @@
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>145</v>
@@ -2422,7 +2422,7 @@
         <v>157</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2433,19 +2433,19 @@
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2456,19 +2456,19 @@
         <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2479,19 +2479,19 @@
         <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2502,13 +2502,13 @@
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>157</v>
@@ -2525,13 +2525,13 @@
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>157</v>
@@ -2548,19 +2548,19 @@
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2571,19 +2571,19 @@
         <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2594,19 +2594,19 @@
         <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2617,19 +2617,19 @@
         <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2640,19 +2640,19 @@
         <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>158</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2663,19 +2663,19 @@
         <v>13</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2686,19 +2686,19 @@
         <v>13</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2709,19 +2709,19 @@
         <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2735,16 +2735,16 @@
         <v>28</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2752,22 +2752,22 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2784,13 +2784,13 @@
         <v>86</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2801,19 +2801,19 @@
         <v>14</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2824,19 +2824,19 @@
         <v>14</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2844,22 +2844,22 @@
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2867,22 +2867,22 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2893,19 +2893,19 @@
         <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2916,19 +2916,19 @@
         <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2939,19 +2939,19 @@
         <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2962,19 +2962,19 @@
         <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2985,19 +2985,19 @@
         <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3008,19 +3008,19 @@
         <v>15</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3031,42 +3031,42 @@
         <v>15</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3077,19 +3077,19 @@
         <v>12</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3100,19 +3100,19 @@
         <v>12</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3123,19 +3123,19 @@
         <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3146,19 +3146,19 @@
         <v>12</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3169,19 +3169,19 @@
         <v>12</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3195,10 +3195,10 @@
         <v>20</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>157</v>
@@ -3215,19 +3215,19 @@
         <v>13</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3238,13 +3238,13 @@
         <v>13</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>157</v>
@@ -3261,19 +3261,19 @@
         <v>13</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3284,19 +3284,19 @@
         <v>13</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3307,19 +3307,19 @@
         <v>14</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3330,19 +3330,19 @@
         <v>14</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3353,19 +3353,19 @@
         <v>14</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3376,19 +3376,19 @@
         <v>14</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3399,19 +3399,19 @@
         <v>14</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3422,13 +3422,13 @@
         <v>15</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>157</v>
@@ -3445,13 +3445,13 @@
         <v>15</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>157</v>
@@ -3468,19 +3468,19 @@
         <v>15</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3491,19 +3491,19 @@
         <v>15</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3514,19 +3514,19 @@
         <v>15</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3543,13 +3543,13 @@
         <v>114</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3560,10 +3560,10 @@
         <v>15</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>143</v>
@@ -3572,7 +3572,7 @@
         <v>157</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3583,19 +3583,19 @@
         <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3606,19 +3606,19 @@
         <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3629,19 +3629,19 @@
         <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3652,7 +3652,7 @@
         <v>12</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>118</v>
@@ -3664,7 +3664,7 @@
         <v>157</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3675,19 +3675,19 @@
         <v>12</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3698,19 +3698,19 @@
         <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3718,22 +3718,22 @@
         <v>11</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3744,19 +3744,19 @@
         <v>13</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3767,7 +3767,7 @@
         <v>13</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>123</v>
@@ -3776,10 +3776,10 @@
         <v>141</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3790,19 +3790,19 @@
         <v>13</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3813,19 +3813,19 @@
         <v>13</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3836,19 +3836,19 @@
         <v>13</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3859,7 +3859,7 @@
         <v>14</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>127</v>
@@ -3871,7 +3871,7 @@
         <v>157</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3882,19 +3882,19 @@
         <v>14</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3905,19 +3905,19 @@
         <v>14</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3928,19 +3928,19 @@
         <v>14</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3951,13 +3951,13 @@
         <v>15</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>157</v>
@@ -3974,19 +3974,19 @@
         <v>15</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>131</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3997,19 +3997,19 @@
         <v>15</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4020,19 +4020,19 @@
         <v>15</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4043,19 +4043,19 @@
         <v>15</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4066,10 +4066,10 @@
         <v>15</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>156</v>
@@ -4078,7 +4078,7 @@
         <v>157</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4089,19 +4089,19 @@
         <v>15</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4112,10 +4112,10 @@
         <v>15</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>145</v>
@@ -4124,7 +4124,7 @@
         <v>157</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4170,7 +4170,7 @@
         <v>195</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>205</v>
@@ -4185,7 +4185,7 @@
         <v>196</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>206</v>
@@ -4200,7 +4200,7 @@
         <v>197</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>207</v>
@@ -4215,7 +4215,7 @@
         <v>198</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>208</v>
@@ -4229,9 +4229,7 @@
       <c r="C6" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
         <v>209</v>
       </c>
@@ -4239,7 +4237,9 @@
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="4" t="s">
         <v>210</v>
@@ -4264,24 +4264,18 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>214</v>
       </c>
@@ -4289,10 +4283,10 @@
         <v>220</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4304,10 +4298,10 @@
         <v>221</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4319,10 +4313,10 @@
         <v>222</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4334,10 +4328,10 @@
         <v>223</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4348,18 +4342,22 @@
       <c r="C15" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="E15" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4368,102 +4366,106 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>250</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>252</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="E22" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+        <v>242</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="E23" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4472,7 +4474,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4481,7 +4483,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4489,7 +4491,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>268</v>
@@ -4504,7 +4506,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>269</v>
@@ -4519,7 +4521,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>270</v>
@@ -4534,7 +4536,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>271</v>
@@ -4549,7 +4551,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>272</v>
@@ -4563,9 +4565,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="4" t="s">
@@ -4598,7 +4598,7 @@
         <v>286</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>297</v>
@@ -4613,7 +4613,7 @@
         <v>287</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>298</v>
@@ -4628,7 +4628,7 @@
         <v>288</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>299</v>
@@ -4643,7 +4643,7 @@
         <v>289</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>300</v>
@@ -4658,7 +4658,7 @@
         <v>290</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="4" t="s">
@@ -4667,10 +4667,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3"/>
-      <c r="B40" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="4" t="s">
         <v>306</v>
@@ -4696,9 +4696,9 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A26"/>
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="A35:A42"/>
   </mergeCells>
